--- a/Bertholin-Destinvil-A1-gridv3.xlsx
+++ b/Bertholin-Destinvil-A1-gridv3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2115" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2115" windowHeight="1185" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="140">
   <si>
     <t>You have coded your dependencies using Maven</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>testWinner()</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2103,9 @@
       <c r="D45">
         <v>0.5</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2121,7 +2126,9 @@
       <c r="D46">
         <v>0.5</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2142,7 +2149,9 @@
       <c r="D47">
         <v>0.5</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2163,7 +2172,9 @@
       <c r="D48">
         <v>0.5</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2184,7 +2195,9 @@
       <c r="D49">
         <v>0.5</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2205,7 +2218,9 @@
       <c r="D50">
         <v>0.5</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2310,7 +2325,9 @@
       <c r="D55">
         <v>0.5</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2331,7 +2348,9 @@
       <c r="D56">
         <v>0.5</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -2373,7 +2392,9 @@
       <c r="D58">
         <v>0.5</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2394,7 +2415,9 @@
       <c r="D59">
         <v>0.5</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2415,7 +2438,9 @@
       <c r="D60">
         <v>0.5</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2445,7 +2470,9 @@
       <c r="D63">
         <v>0.25</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2467,7 +2494,9 @@
       <c r="D64">
         <v>0.5</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2489,7 +2518,9 @@
       <c r="D65">
         <v>0.25</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2511,7 +2542,9 @@
       <c r="D66">
         <v>0.25</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2533,7 +2566,9 @@
       <c r="D67">
         <v>0.25</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -2555,7 +2590,9 @@
       <c r="D68">
         <v>0.25</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -2577,7 +2614,9 @@
       <c r="D69">
         <v>0.25</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2599,7 +2638,9 @@
       <c r="D70">
         <v>0.25</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2621,7 +2662,9 @@
       <c r="D71">
         <v>0.25</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
